--- a/Nadatrace/purchased_goods_20.xlsx
+++ b/Nadatrace/purchased_goods_20.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shelbywalsh/Desktop/Advanced Data/assignments/nadatrace_shiny/Nadatrace/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{507FA86E-2433-DE47-91E6-447511A9FD0B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="15960" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1 - purchased_goods_2020" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet 1 - purchased_goods_20" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
-  <si>
-    <t>purchased_goods_2020</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>prod_cat</t>
   </si>
@@ -25,45 +31,136 @@
     <t>spend</t>
   </si>
   <si>
-    <t>co2e_per_cad</t>
-  </si>
-  <si>
-    <t>avg_co2e_per_cad</t>
-  </si>
-  <si>
-    <t>final_co2e_kg_2020</t>
-  </si>
-  <si>
-    <t>scope</t>
-  </si>
-  <si>
-    <t>2020 Scope 3: Purchased Goods &amp; Services</t>
+    <t>co2e_per_dollar</t>
+  </si>
+  <si>
+    <t>eggs</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>meat</t>
+  </si>
+  <si>
+    <t>fabric</t>
+  </si>
+  <si>
+    <t>flours</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>cookie</t>
+  </si>
+  <si>
+    <t>sugar</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>dried</t>
+  </si>
+  <si>
+    <t>ice cream</t>
+  </si>
+  <si>
+    <t>frozen</t>
+  </si>
+  <si>
+    <t>scrap</t>
+  </si>
+  <si>
+    <t>dairy</t>
+  </si>
+  <si>
+    <t>oilseed</t>
+  </si>
+  <si>
+    <t>snack</t>
+  </si>
+  <si>
+    <t>grain</t>
+  </si>
+  <si>
+    <t>fish</t>
+  </si>
+  <si>
+    <t>seasoning</t>
+  </si>
+  <si>
+    <t>brewery</t>
+  </si>
+  <si>
+    <t>floral</t>
+  </si>
+  <si>
+    <t>cleaning</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>fruit</t>
+  </si>
+  <si>
+    <t>vegetable</t>
+  </si>
+  <si>
+    <t>apparel</t>
+  </si>
+  <si>
+    <t>glass</t>
+  </si>
+  <si>
+    <t>cutlery</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>metal</t>
+  </si>
+  <si>
+    <t>thread</t>
+  </si>
+  <si>
+    <t>honey</t>
+  </si>
+  <si>
+    <t>other food</t>
+  </si>
+  <si>
+    <t>other all</t>
+  </si>
+  <si>
+    <t>cond_d</t>
+  </si>
+  <si>
+    <t>soy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="0.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -201,60 +298,45 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="59" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="59" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -265,26 +347,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -483,7 +624,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -502,7 +643,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -532,7 +673,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -558,7 +699,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -584,7 +725,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -610,7 +751,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -636,7 +777,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -662,7 +803,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -688,7 +829,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -714,7 +855,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -740,7 +881,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -753,9 +894,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -772,7 +919,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -791,7 +938,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -817,7 +964,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -843,7 +990,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -869,7 +1016,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -895,7 +1042,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -921,7 +1068,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -947,7 +1094,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -973,7 +1120,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -999,7 +1146,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1025,7 +1172,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1038,9 +1185,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1054,7 +1207,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1073,7 +1226,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1103,7 +1256,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1129,7 +1282,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1155,7 +1308,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1181,7 +1334,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1207,7 +1360,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1233,7 +1386,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1259,7 +1412,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1285,7 +1438,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1311,7 +1464,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1324,882 +1477,565 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:G37"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.33333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.1719" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.8516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="34.5" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.35156" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="3">
+    </row>
+    <row r="2" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="3">
+      <c r="B2" s="4">
+        <v>5135.32</v>
+      </c>
+      <c r="C2" s="5">
+        <v>13686</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="3">
+      <c r="B3" s="7">
+        <v>606.52</v>
+      </c>
+      <c r="C3" s="8">
+        <v>13881.28</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s" s="3">
+      <c r="B4" s="7">
+        <v>106.71</v>
+      </c>
+      <c r="C4" s="8">
+        <v>3368.63</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" s="4">
+      <c r="B5" s="7">
+        <v>537.02</v>
+      </c>
+      <c r="C5" s="10">
+        <v>2480.6</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1026.01</v>
+      </c>
+      <c r="C6" s="8">
+        <v>9985.5300000000007</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="7">
+        <v>812.69</v>
+      </c>
+      <c r="C7" s="8">
+        <v>13332.57</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1715.11</v>
+      </c>
+      <c r="C8" s="8">
+        <v>22340.560000000001</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="7">
+        <v>3321.84</v>
+      </c>
+      <c r="C9" s="8">
+        <v>24091.919999999998</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="7">
+        <v>2306.17</v>
+      </c>
+      <c r="C10" s="8">
+        <v>28566.39</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="7">
+        <v>2492.67</v>
+      </c>
+      <c r="C11" s="8">
+        <v>20476.36</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="7">
+        <v>349.21</v>
+      </c>
+      <c r="C12" s="10">
+        <v>9811.9</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="7">
+        <v>1306.8499999999999</v>
+      </c>
+      <c r="C13" s="10">
+        <v>13214.1</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="7">
+        <v>96.22</v>
+      </c>
+      <c r="C14" s="9">
+        <v>442</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="7">
+        <v>37.96</v>
+      </c>
+      <c r="C15" s="10">
+        <v>374.5</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1347.06</v>
+      </c>
+      <c r="C16" s="8">
+        <v>29541.77</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="7">
+        <v>1002.97</v>
+      </c>
+      <c r="C17" s="8">
+        <v>18903.39</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="7">
+        <v>26687.119999999999</v>
+      </c>
+      <c r="C18" s="8">
+        <v>35397.85</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="7">
+        <v>3152.22</v>
+      </c>
+      <c r="C19" s="8">
+        <v>34311.25</v>
+      </c>
+      <c r="D19" s="9">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="7">
+        <v>30158.17</v>
+      </c>
+      <c r="C20" s="10">
+        <v>25560.400000000001</v>
+      </c>
+      <c r="D20" s="9">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="7">
+        <v>0</v>
+      </c>
+      <c r="C21" s="9">
+        <v>0</v>
+      </c>
+      <c r="D21" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="7">
+        <v>999.63</v>
+      </c>
+      <c r="C22" s="10">
+        <v>22682.1</v>
+      </c>
+      <c r="D22" s="9">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="7">
+        <v>594.41999999999996</v>
+      </c>
+      <c r="C23" s="10">
+        <v>6900.9</v>
+      </c>
+      <c r="D23" s="9">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="11">
+        <v>1048.3</v>
+      </c>
+      <c r="C24" s="9">
+        <v>864</v>
+      </c>
+      <c r="D24" s="9">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="7">
+        <v>886.58</v>
+      </c>
+      <c r="C25" s="8">
+        <v>22261.96</v>
+      </c>
+      <c r="D25" s="9">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="7">
+        <v>451.36</v>
+      </c>
+      <c r="C26" s="8">
+        <v>34235.03</v>
+      </c>
+      <c r="D26" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B27" s="7">
+        <v>36005.050000000003</v>
+      </c>
+      <c r="C27" s="8">
+        <v>41279.360000000001</v>
+      </c>
+      <c r="D27" s="9">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="7">
         <v>64333.53</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C28" s="8">
         <v>57368.49</v>
       </c>
-      <c r="D3" s="6">
-        <v>1.12</v>
-      </c>
-      <c r="E3" s="6">
-        <v>0.27</v>
-      </c>
-      <c r="F3" s="7">
-        <v>209822.4</v>
-      </c>
-      <c r="G3" t="s" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="9">
-        <v>26</v>
-      </c>
-      <c r="B4" s="10">
-        <v>36005.05</v>
-      </c>
-      <c r="C4" s="11">
-        <v>41279.36</v>
-      </c>
-      <c r="D4" s="11">
-        <v>0.87</v>
-      </c>
-      <c r="E4" s="11">
-        <v>0.27</v>
-      </c>
-      <c r="F4" s="12">
-        <v>209822.4</v>
-      </c>
-      <c r="G4" t="s" s="13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="9">
-        <v>19</v>
-      </c>
-      <c r="B5" s="10">
-        <v>30158.17</v>
-      </c>
-      <c r="C5" s="12">
-        <v>25560.4</v>
-      </c>
-      <c r="D5" s="11">
-        <v>1.18</v>
-      </c>
-      <c r="E5" s="11">
-        <v>0.27</v>
-      </c>
-      <c r="F5" s="12">
-        <v>209822.4</v>
-      </c>
-      <c r="G5" t="s" s="13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="9">
-        <v>17</v>
-      </c>
-      <c r="B6" s="10">
-        <v>26687.12</v>
-      </c>
-      <c r="C6" s="11">
-        <v>35397.85</v>
-      </c>
-      <c r="D6" s="11">
-        <v>0.75</v>
-      </c>
-      <c r="E6" s="11">
-        <v>0.27</v>
-      </c>
-      <c r="F6" s="12">
-        <v>209822.4</v>
-      </c>
-      <c r="G6" t="s" s="13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="9">
+      <c r="D28" s="9">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="7">
+        <v>46.08</v>
+      </c>
+      <c r="C29" s="9">
+        <v>1085</v>
+      </c>
+      <c r="D29" s="9">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="7">
+        <v>6223.32</v>
+      </c>
+      <c r="C30" s="8">
+        <v>13914.41</v>
+      </c>
+      <c r="D30" s="9">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="7">
+        <v>76.63</v>
+      </c>
+      <c r="C31" s="10">
+        <v>1113.3</v>
+      </c>
+      <c r="D31" s="9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="7">
+        <v>667</v>
+      </c>
+      <c r="C32" s="10">
+        <v>2893.4</v>
+      </c>
+      <c r="D32" s="9">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="7">
+        <v>459.27</v>
+      </c>
+      <c r="C33" s="9">
+        <v>6005</v>
+      </c>
+      <c r="D33" s="9">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="7">
+        <v>136.38999999999999</v>
+      </c>
+      <c r="C34" s="10">
+        <v>2604.8000000000002</v>
+      </c>
+      <c r="D34" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B35" s="7">
+        <v>1199.54</v>
+      </c>
+      <c r="C35" s="8">
+        <v>4054.06</v>
+      </c>
+      <c r="D35" s="9">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="7">
         <v>13503.26</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C36" s="8">
         <v>12861.45</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D36" s="9">
         <v>1.05</v>
       </c>
-      <c r="E7" s="11">
-        <v>0.27</v>
-      </c>
-      <c r="F7" s="12">
-        <v>209822.4</v>
-      </c>
-      <c r="G7" t="s" s="13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="9">
-        <v>29</v>
-      </c>
-      <c r="B8" s="10">
-        <v>6223.32</v>
-      </c>
-      <c r="C8" s="11">
-        <v>13914.41</v>
-      </c>
-      <c r="D8" s="11">
-        <v>0.45</v>
-      </c>
-      <c r="E8" s="11">
-        <v>0.27</v>
-      </c>
-      <c r="F8" s="12">
-        <v>209822.4</v>
-      </c>
-      <c r="G8" t="s" s="13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="9">
-        <v>1</v>
-      </c>
-      <c r="B9" s="10">
-        <v>5135.32</v>
-      </c>
-      <c r="C9" s="14">
-        <v>13686</v>
-      </c>
-      <c r="D9" s="11">
-        <v>0.38</v>
-      </c>
-      <c r="E9" s="11">
-        <v>0.27</v>
-      </c>
-      <c r="F9" s="12">
-        <v>209822.4</v>
-      </c>
-      <c r="G9" t="s" s="13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="9">
-        <v>8</v>
-      </c>
-      <c r="B10" s="10">
-        <v>3321.84</v>
-      </c>
-      <c r="C10" s="11">
-        <v>24091.92</v>
-      </c>
-      <c r="D10" s="11">
-        <v>0.14</v>
-      </c>
-      <c r="E10" s="11">
-        <v>0.27</v>
-      </c>
-      <c r="F10" s="12">
-        <v>209822.4</v>
-      </c>
-      <c r="G10" t="s" s="13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="9">
-        <v>18</v>
-      </c>
-      <c r="B11" s="10">
-        <v>3152.22</v>
-      </c>
-      <c r="C11" s="11">
-        <v>34311.25</v>
-      </c>
-      <c r="D11" s="11">
-        <v>0.09</v>
-      </c>
-      <c r="E11" s="11">
-        <v>0.27</v>
-      </c>
-      <c r="F11" s="12">
-        <v>209822.4</v>
-      </c>
-      <c r="G11" t="s" s="13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="9">
-        <v>10</v>
-      </c>
-      <c r="B12" s="10">
-        <v>2492.67</v>
-      </c>
-      <c r="C12" s="11">
-        <v>20476.36</v>
-      </c>
-      <c r="D12" s="11">
-        <v>0.12</v>
-      </c>
-      <c r="E12" s="11">
-        <v>0.27</v>
-      </c>
-      <c r="F12" s="12">
-        <v>209822.4</v>
-      </c>
-      <c r="G12" t="s" s="13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="9">
-        <v>9</v>
-      </c>
-      <c r="B13" s="10">
-        <v>2306.17</v>
-      </c>
-      <c r="C13" s="11">
-        <v>28566.39</v>
-      </c>
-      <c r="D13" s="11">
-        <v>0.08</v>
-      </c>
-      <c r="E13" s="11">
-        <v>0.27</v>
-      </c>
-      <c r="F13" s="12">
-        <v>209822.4</v>
-      </c>
-      <c r="G13" t="s" s="13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="9">
-        <v>7</v>
-      </c>
-      <c r="B14" s="10">
-        <v>1715.11</v>
-      </c>
-      <c r="C14" s="11">
-        <v>22340.56</v>
-      </c>
-      <c r="D14" s="11">
-        <v>0.08</v>
-      </c>
-      <c r="E14" s="11">
-        <v>0.27</v>
-      </c>
-      <c r="F14" s="12">
-        <v>209822.4</v>
-      </c>
-      <c r="G14" t="s" s="13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="9">
-        <v>15</v>
-      </c>
-      <c r="B15" s="10">
-        <v>1347.06</v>
-      </c>
-      <c r="C15" s="11">
-        <v>29541.77</v>
-      </c>
-      <c r="D15" s="11">
-        <v>0.05</v>
-      </c>
-      <c r="E15" s="11">
-        <v>0.27</v>
-      </c>
-      <c r="F15" s="12">
-        <v>209822.4</v>
-      </c>
-      <c r="G15" t="s" s="13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="9">
-        <v>12</v>
-      </c>
-      <c r="B16" s="10">
-        <v>1306.85</v>
-      </c>
-      <c r="C16" s="12">
-        <v>13214.1</v>
-      </c>
-      <c r="D16" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="E16" s="11">
-        <v>0.27</v>
-      </c>
-      <c r="F16" s="12">
-        <v>209822.4</v>
-      </c>
-      <c r="G16" t="s" s="13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="9">
-        <v>34</v>
-      </c>
-      <c r="B17" s="10">
-        <v>1199.54</v>
-      </c>
-      <c r="C17" s="11">
-        <v>4054.06</v>
-      </c>
-      <c r="D17" s="12">
-        <v>0.3</v>
-      </c>
-      <c r="E17" s="11">
-        <v>0.27</v>
-      </c>
-      <c r="F17" s="12">
-        <v>209822.4</v>
-      </c>
-      <c r="G17" t="s" s="13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="9">
-        <v>23</v>
-      </c>
-      <c r="B18" s="15">
-        <v>1048.3</v>
-      </c>
-      <c r="C18" s="14">
-        <v>864</v>
-      </c>
-      <c r="D18" s="11">
-        <v>1.21</v>
-      </c>
-      <c r="E18" s="11">
-        <v>0.27</v>
-      </c>
-      <c r="F18" s="12">
-        <v>209822.4</v>
-      </c>
-      <c r="G18" t="s" s="13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="9">
-        <v>5</v>
-      </c>
-      <c r="B19" s="10">
-        <v>1026.01</v>
-      </c>
-      <c r="C19" s="11">
-        <v>9985.530000000001</v>
-      </c>
-      <c r="D19" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="E19" s="11">
-        <v>0.27</v>
-      </c>
-      <c r="F19" s="12">
-        <v>209822.4</v>
-      </c>
-      <c r="G19" t="s" s="13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="9">
-        <v>16</v>
-      </c>
-      <c r="B20" s="10">
-        <v>1002.97</v>
-      </c>
-      <c r="C20" s="11">
-        <v>18903.39</v>
-      </c>
-      <c r="D20" s="11">
-        <v>0.05</v>
-      </c>
-      <c r="E20" s="11">
-        <v>0.27</v>
-      </c>
-      <c r="F20" s="12">
-        <v>209822.4</v>
-      </c>
-      <c r="G20" t="s" s="13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="9">
-        <v>21</v>
-      </c>
-      <c r="B21" s="10">
-        <v>999.63</v>
-      </c>
-      <c r="C21" s="12">
-        <v>22682.1</v>
-      </c>
-      <c r="D21" s="11">
-        <v>0.04</v>
-      </c>
-      <c r="E21" s="11">
-        <v>0.27</v>
-      </c>
-      <c r="F21" s="12">
-        <v>209822.4</v>
-      </c>
-      <c r="G21" t="s" s="13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="9">
-        <v>36</v>
-      </c>
-      <c r="B22" s="10">
+    </row>
+    <row r="37" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="7">
         <v>994.23</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C37" s="8">
         <v>16602.27</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D37" s="9">
         <v>0.06</v>
       </c>
-      <c r="E22" s="11">
-        <v>0.27</v>
-      </c>
-      <c r="F22" s="12">
-        <v>209822.4</v>
-      </c>
-      <c r="G22" t="s" s="13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" s="9">
-        <v>24</v>
-      </c>
-      <c r="B23" s="10">
-        <v>886.58</v>
-      </c>
-      <c r="C23" s="11">
-        <v>22261.96</v>
-      </c>
-      <c r="D23" s="11">
-        <v>0.04</v>
-      </c>
-      <c r="E23" s="11">
-        <v>0.27</v>
-      </c>
-      <c r="F23" s="12">
-        <v>209822.4</v>
-      </c>
-      <c r="G23" t="s" s="13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" s="9">
-        <v>6</v>
-      </c>
-      <c r="B24" s="10">
-        <v>812.6900000000001</v>
-      </c>
-      <c r="C24" s="11">
-        <v>13332.57</v>
-      </c>
-      <c r="D24" s="11">
-        <v>0.06</v>
-      </c>
-      <c r="E24" s="11">
-        <v>0.27</v>
-      </c>
-      <c r="F24" s="12">
-        <v>209822.4</v>
-      </c>
-      <c r="G24" t="s" s="13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" s="9">
-        <v>31</v>
-      </c>
-      <c r="B25" s="16">
-        <v>667</v>
-      </c>
-      <c r="C25" s="12">
-        <v>2893.4</v>
-      </c>
-      <c r="D25" s="11">
-        <v>0.23</v>
-      </c>
-      <c r="E25" s="11">
-        <v>0.27</v>
-      </c>
-      <c r="F25" s="12">
-        <v>209822.4</v>
-      </c>
-      <c r="G25" t="s" s="13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" ht="20.05" customHeight="1">
-      <c r="A26" s="9">
-        <v>2</v>
-      </c>
-      <c r="B26" s="10">
-        <v>606.52</v>
-      </c>
-      <c r="C26" s="11">
-        <v>13881.28</v>
-      </c>
-      <c r="D26" s="11">
-        <v>0.04</v>
-      </c>
-      <c r="E26" s="11">
-        <v>0.27</v>
-      </c>
-      <c r="F26" s="12">
-        <v>209822.4</v>
-      </c>
-      <c r="G26" t="s" s="13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" ht="20.05" customHeight="1">
-      <c r="A27" s="9">
-        <v>22</v>
-      </c>
-      <c r="B27" s="10">
-        <v>594.42</v>
-      </c>
-      <c r="C27" s="12">
-        <v>6900.9</v>
-      </c>
-      <c r="D27" s="11">
-        <v>0.09</v>
-      </c>
-      <c r="E27" s="11">
-        <v>0.27</v>
-      </c>
-      <c r="F27" s="12">
-        <v>209822.4</v>
-      </c>
-      <c r="G27" t="s" s="13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" ht="20.05" customHeight="1">
-      <c r="A28" s="9">
-        <v>4</v>
-      </c>
-      <c r="B28" s="10">
-        <v>537.02</v>
-      </c>
-      <c r="C28" s="12">
-        <v>2480.6</v>
-      </c>
-      <c r="D28" s="11">
-        <v>0.22</v>
-      </c>
-      <c r="E28" s="11">
-        <v>0.27</v>
-      </c>
-      <c r="F28" s="12">
-        <v>209822.4</v>
-      </c>
-      <c r="G28" t="s" s="13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" ht="20.05" customHeight="1">
-      <c r="A29" s="9">
-        <v>32</v>
-      </c>
-      <c r="B29" s="10">
-        <v>459.27</v>
-      </c>
-      <c r="C29" s="14">
-        <v>6005</v>
-      </c>
-      <c r="D29" s="11">
-        <v>0.08</v>
-      </c>
-      <c r="E29" s="11">
-        <v>0.27</v>
-      </c>
-      <c r="F29" s="12">
-        <v>209822.4</v>
-      </c>
-      <c r="G29" t="s" s="13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" ht="20.05" customHeight="1">
-      <c r="A30" s="9">
-        <v>25</v>
-      </c>
-      <c r="B30" s="10">
-        <v>451.36</v>
-      </c>
-      <c r="C30" s="11">
-        <v>34235.03</v>
-      </c>
-      <c r="D30" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="E30" s="11">
-        <v>0.27</v>
-      </c>
-      <c r="F30" s="12">
-        <v>209822.4</v>
-      </c>
-      <c r="G30" t="s" s="13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" ht="20.05" customHeight="1">
-      <c r="A31" s="9">
-        <v>11</v>
-      </c>
-      <c r="B31" s="10">
-        <v>349.21</v>
-      </c>
-      <c r="C31" s="12">
-        <v>9811.9</v>
-      </c>
-      <c r="D31" s="11">
-        <v>0.04</v>
-      </c>
-      <c r="E31" s="11">
-        <v>0.27</v>
-      </c>
-      <c r="F31" s="12">
-        <v>209822.4</v>
-      </c>
-      <c r="G31" t="s" s="13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" ht="20.05" customHeight="1">
-      <c r="A32" s="9">
-        <v>33</v>
-      </c>
-      <c r="B32" s="10">
-        <v>136.39</v>
-      </c>
-      <c r="C32" s="12">
-        <v>2604.8</v>
-      </c>
-      <c r="D32" s="11">
-        <v>0.05</v>
-      </c>
-      <c r="E32" s="11">
-        <v>0.27</v>
-      </c>
-      <c r="F32" s="12">
-        <v>209822.4</v>
-      </c>
-      <c r="G32" t="s" s="13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" ht="20.05" customHeight="1">
-      <c r="A33" s="9">
-        <v>3</v>
-      </c>
-      <c r="B33" s="10">
-        <v>106.71</v>
-      </c>
-      <c r="C33" s="11">
-        <v>3368.63</v>
-      </c>
-      <c r="D33" s="11">
-        <v>0.03</v>
-      </c>
-      <c r="E33" s="11">
-        <v>0.27</v>
-      </c>
-      <c r="F33" s="12">
-        <v>209822.4</v>
-      </c>
-      <c r="G33" t="s" s="13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" ht="20.05" customHeight="1">
-      <c r="A34" s="9">
-        <v>13</v>
-      </c>
-      <c r="B34" s="10">
-        <v>96.22</v>
-      </c>
-      <c r="C34" s="14">
-        <v>442</v>
-      </c>
-      <c r="D34" s="11">
-        <v>0.22</v>
-      </c>
-      <c r="E34" s="11">
-        <v>0.27</v>
-      </c>
-      <c r="F34" s="12">
-        <v>209822.4</v>
-      </c>
-      <c r="G34" t="s" s="13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" ht="20.05" customHeight="1">
-      <c r="A35" s="9">
-        <v>30</v>
-      </c>
-      <c r="B35" s="10">
-        <v>76.63</v>
-      </c>
-      <c r="C35" s="12">
-        <v>1113.3</v>
-      </c>
-      <c r="D35" s="11">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E35" s="11">
-        <v>0.27</v>
-      </c>
-      <c r="F35" s="12">
-        <v>209822.4</v>
-      </c>
-      <c r="G35" t="s" s="13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" ht="20.05" customHeight="1">
-      <c r="A36" s="9">
-        <v>28</v>
-      </c>
-      <c r="B36" s="10">
-        <v>46.08</v>
-      </c>
-      <c r="C36" s="14">
-        <v>1085</v>
-      </c>
-      <c r="D36" s="11">
-        <v>0.04</v>
-      </c>
-      <c r="E36" s="11">
-        <v>0.27</v>
-      </c>
-      <c r="F36" s="12">
-        <v>209822.4</v>
-      </c>
-      <c r="G36" t="s" s="13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" ht="20.05" customHeight="1">
-      <c r="A37" s="9">
-        <v>14</v>
-      </c>
-      <c r="B37" s="16">
-        <v>37.96</v>
-      </c>
-      <c r="C37" s="14">
-        <v>374.5</v>
-      </c>
-      <c r="D37" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="E37" s="14">
-        <v>0.27</v>
-      </c>
-      <c r="F37" s="14">
-        <v>209822.4</v>
-      </c>
-      <c r="G37" t="s" s="13">
-        <v>8</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
-  </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
